--- a/test_xlsx/M模式商店表.xlsx
+++ b/test_xlsx/M模式商店表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12420"/>
+    <workbookView windowHeight="17220"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="83">
   <si>
     <t>MOD</t>
   </si>
@@ -29,6 +29,12 @@
     <t>FRONT_TYPE</t>
   </si>
   <si>
+    <t>uint32</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>DES</t>
   </si>
   <si>
@@ -116,7 +122,7 @@
     <t>REF</t>
   </si>
   <si>
-    <t>M模式表</t>
+    <t>Data.GameModeManage</t>
   </si>
   <si>
     <t>VALUE</t>
@@ -265,10 +271,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -303,67 +309,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -383,9 +329,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -399,8 +344,53 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -423,14 +413,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color indexed="8"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -444,9 +444,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -473,13 +479,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,169 +653,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -764,33 +770,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -821,6 +800,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -832,17 +829,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -861,6 +847,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -869,10 +875,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -881,136 +887,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1449,7 +1455,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E6" sqref="E6"/>
+      <selection pane="bottomRight" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1533,19 +1539,41 @@
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="10"/>
+      <c r="B3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="K3" s="10"/>
-      <c r="L3" s="10"/>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10"/>
+      <c r="E3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="J3" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="10" t="s">
+        <v>4</v>
+      </c>
       <c r="O3" s="10"/>
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
@@ -1559,46 +1587,46 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:24">
       <c r="A4" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
@@ -1613,42 +1641,42 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:24">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -1663,7 +1691,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:24">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -1672,7 +1700,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -1693,13 +1721,13 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="17.25" spans="1:24">
       <c r="A7" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
       <c r="D7" s="14"/>
       <c r="E7" s="14" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="14"/>
@@ -1723,7 +1751,7 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:14">
       <c r="A8" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B8" s="16" t="str">
         <f>E8&amp;IF(LENB(F8)=1,0&amp;F8,F8)&amp;IF(LENB(G8)=1,0&amp;G8,G8)</f>
@@ -1734,7 +1762,7 @@
         <v>唯一</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="16">
         <v>1001</v>
@@ -1746,13 +1774,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8" s="16">
         <v>1</v>
@@ -1770,7 +1798,7 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:14">
       <c r="A9" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B9" s="16" t="str">
         <f t="shared" ref="B9:B32" si="0">E9&amp;IF(LENB(F9)=1,0&amp;F9,F9)&amp;IF(LENB(G9)=1,0&amp;G9,G9)</f>
@@ -1781,7 +1809,7 @@
         <v>唯一</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E9" s="16">
         <v>1001</v>
@@ -1793,13 +1821,13 @@
         <v>2</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K9" s="16">
         <v>1</v>
@@ -1817,7 +1845,7 @@
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1828,7 +1856,7 @@
         <v>唯一</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E10" s="16">
         <v>1001</v>
@@ -1840,13 +1868,13 @@
         <v>1</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J10" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K10" s="16">
         <v>1</v>
@@ -1864,7 +1892,7 @@
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1875,7 +1903,7 @@
         <v>唯一</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E11" s="16">
         <v>1001</v>
@@ -1887,13 +1915,13 @@
         <v>2</v>
       </c>
       <c r="H11" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I11" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J11" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K11" s="16">
         <v>1</v>
@@ -1911,7 +1939,7 @@
     </row>
     <row r="12" spans="1:14">
       <c r="A12" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1922,7 +1950,7 @@
         <v>唯一</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E12" s="16">
         <v>1001</v>
@@ -1934,13 +1962,13 @@
         <v>3</v>
       </c>
       <c r="H12" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I12" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J12" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K12" s="16">
         <v>1</v>
@@ -1958,7 +1986,7 @@
     </row>
     <row r="13" spans="1:14">
       <c r="A13" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
@@ -1969,7 +1997,7 @@
         <v>唯一</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E13" s="16">
         <v>1001</v>
@@ -1981,13 +2009,13 @@
         <v>4</v>
       </c>
       <c r="H13" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I13" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J13" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K13" s="16">
         <v>1</v>
@@ -2005,7 +2033,7 @@
     </row>
     <row r="14" spans="1:14">
       <c r="A14" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2016,7 +2044,7 @@
         <v>唯一</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="E14" s="16">
         <v>1001</v>
@@ -2028,13 +2056,13 @@
         <v>5</v>
       </c>
       <c r="H14" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I14" s="16" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J14" s="16" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K14" s="16">
         <v>1</v>
@@ -2052,7 +2080,7 @@
     </row>
     <row r="15" spans="1:14">
       <c r="A15" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2063,7 +2091,7 @@
         <v>唯一</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E15" s="16">
         <v>1001</v>
@@ -2075,13 +2103,13 @@
         <v>1</v>
       </c>
       <c r="H15" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I15" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J15" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K15" s="16">
         <v>1</v>
@@ -2099,7 +2127,7 @@
     </row>
     <row r="16" spans="1:14">
       <c r="A16" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2110,7 +2138,7 @@
         <v>唯一</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E16" s="16">
         <v>1001</v>
@@ -2122,13 +2150,13 @@
         <v>2</v>
       </c>
       <c r="H16" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I16" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J16" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K16" s="16">
         <v>1</v>
@@ -2146,7 +2174,7 @@
     </row>
     <row r="17" spans="1:14">
       <c r="A17" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2157,7 +2185,7 @@
         <v>唯一</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E17" s="16">
         <v>1001</v>
@@ -2169,13 +2197,13 @@
         <v>3</v>
       </c>
       <c r="H17" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I17" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J17" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K17" s="16">
         <v>1</v>
@@ -2193,7 +2221,7 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2204,7 +2232,7 @@
         <v>唯一</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="E18" s="16">
         <v>1001</v>
@@ -2216,13 +2244,13 @@
         <v>4</v>
       </c>
       <c r="H18" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I18" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J18" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K18" s="16">
         <v>1</v>
@@ -2240,7 +2268,7 @@
     </row>
     <row r="19" spans="1:14">
       <c r="A19" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2251,7 +2279,7 @@
         <v>唯一</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E19" s="16">
         <v>1001</v>
@@ -2263,13 +2291,13 @@
         <v>5</v>
       </c>
       <c r="H19" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I19" s="16" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="J19" s="16" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K19" s="16">
         <v>1</v>
@@ -2287,7 +2315,7 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:14">
       <c r="A20" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2298,7 +2326,7 @@
         <v>唯一</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E20" s="16">
         <v>1001</v>
@@ -2310,13 +2338,13 @@
         <v>1</v>
       </c>
       <c r="H20" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I20" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J20" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K20" s="16">
         <v>1</v>
@@ -2334,7 +2362,7 @@
     </row>
     <row r="21" s="4" customFormat="1" spans="1:14">
       <c r="A21" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B21" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2345,7 +2373,7 @@
         <v>唯一</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E21" s="16">
         <v>1001</v>
@@ -2357,13 +2385,13 @@
         <v>2</v>
       </c>
       <c r="H21" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I21" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J21" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K21" s="16">
         <v>1</v>
@@ -2381,7 +2409,7 @@
     </row>
     <row r="22" s="4" customFormat="1" spans="1:14">
       <c r="A22" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B22" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2392,7 +2420,7 @@
         <v>唯一</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E22" s="16">
         <v>1001</v>
@@ -2404,13 +2432,13 @@
         <v>3</v>
       </c>
       <c r="H22" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I22" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J22" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K22" s="16">
         <v>1</v>
@@ -2428,7 +2456,7 @@
     </row>
     <row r="23" spans="1:14">
       <c r="A23" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B23" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2439,7 +2467,7 @@
         <v>唯一</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E23" s="16">
         <v>1001</v>
@@ -2451,13 +2479,13 @@
         <v>4</v>
       </c>
       <c r="H23" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I23" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J23" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K23" s="16">
         <v>1</v>
@@ -2475,7 +2503,7 @@
     </row>
     <row r="24" spans="1:14">
       <c r="A24" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B24" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2486,7 +2514,7 @@
         <v>唯一</v>
       </c>
       <c r="D24" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E24" s="16">
         <v>1001</v>
@@ -2498,13 +2526,13 @@
         <v>5</v>
       </c>
       <c r="H24" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I24" s="16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="J24" s="16" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K24" s="16">
         <v>1</v>
@@ -2522,7 +2550,7 @@
     </row>
     <row r="25" spans="1:14">
       <c r="A25" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B25" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2533,7 +2561,7 @@
         <v>唯一</v>
       </c>
       <c r="D25" s="6" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" s="16">
         <v>1001</v>
@@ -2545,13 +2573,13 @@
         <v>1</v>
       </c>
       <c r="H25" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I25" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J25" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K25" s="16">
         <v>1</v>
@@ -2569,7 +2597,7 @@
     </row>
     <row r="26" spans="1:14">
       <c r="A26" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B26" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2580,7 +2608,7 @@
         <v>唯一</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="E26" s="16">
         <v>1001</v>
@@ -2592,13 +2620,13 @@
         <v>2</v>
       </c>
       <c r="H26" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I26" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J26" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K26" s="16">
         <v>1</v>
@@ -2616,7 +2644,7 @@
     </row>
     <row r="27" spans="1:14">
       <c r="A27" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B27" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2627,7 +2655,7 @@
         <v>唯一</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E27" s="16">
         <v>1001</v>
@@ -2639,13 +2667,13 @@
         <v>3</v>
       </c>
       <c r="H27" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I27" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J27" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K27" s="16">
         <v>1</v>
@@ -2663,7 +2691,7 @@
     </row>
     <row r="28" spans="1:14">
       <c r="A28" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B28" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2674,7 +2702,7 @@
         <v>唯一</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E28" s="16">
         <v>1001</v>
@@ -2686,13 +2714,13 @@
         <v>4</v>
       </c>
       <c r="H28" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I28" s="16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="J28" s="16" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K28" s="16">
         <v>1</v>
@@ -2710,7 +2738,7 @@
     </row>
     <row r="29" spans="1:14">
       <c r="A29" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B29" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2721,7 +2749,7 @@
         <v>唯一</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E29" s="16">
         <v>1001</v>
@@ -2733,13 +2761,13 @@
         <v>1</v>
       </c>
       <c r="H29" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I29" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J29" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K29" s="16">
         <v>1</v>
@@ -2757,7 +2785,7 @@
     </row>
     <row r="30" spans="1:14">
       <c r="A30" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B30" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2768,7 +2796,7 @@
         <v>唯一</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E30" s="16">
         <v>1001</v>
@@ -2780,13 +2808,13 @@
         <v>2</v>
       </c>
       <c r="H30" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I30" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J30" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K30" s="16">
         <v>1</v>
@@ -2804,7 +2832,7 @@
     </row>
     <row r="31" spans="1:14">
       <c r="A31" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B31" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2815,7 +2843,7 @@
         <v>唯一</v>
       </c>
       <c r="D31" s="6" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E31" s="16">
         <v>1001</v>
@@ -2827,13 +2855,13 @@
         <v>3</v>
       </c>
       <c r="H31" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I31" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J31" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K31" s="16">
         <v>2</v>
@@ -2851,7 +2879,7 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" s="15" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32" s="16" t="str">
         <f t="shared" si="0"/>
@@ -2862,7 +2890,7 @@
         <v>唯一</v>
       </c>
       <c r="D32" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="E32" s="16">
         <v>1001</v>
@@ -2874,13 +2902,13 @@
         <v>4</v>
       </c>
       <c r="H32" s="16" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I32" s="16" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J32" s="16" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K32" s="16">
         <v>1</v>
@@ -3017,46 +3045,46 @@
     </row>
     <row r="4" s="2" customFormat="1" spans="1:24">
       <c r="A4" s="11" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I4" s="22" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="J4" s="22" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="L4" s="12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="M4" s="12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N4" s="12" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4" s="12"/>
       <c r="P4" s="12"/>
@@ -3071,42 +3099,42 @@
     </row>
     <row r="5" s="2" customFormat="1" spans="1:24">
       <c r="A5" s="9" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I5" s="21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="J5" s="21" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="O5" s="10"/>
       <c r="P5" s="10"/>
@@ -3121,7 +3149,7 @@
     </row>
     <row r="6" s="2" customFormat="1" spans="1:24">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
@@ -3130,7 +3158,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I6" s="21"/>
       <c r="J6" s="21"/>
@@ -3151,7 +3179,7 @@
     </row>
     <row r="7" s="3" customFormat="1" ht="17.25" spans="1:24">
       <c r="A7" s="13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -3188,7 +3216,7 @@
         <v>唯一</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="E8" s="16">
         <v>1001</v>
@@ -3200,13 +3228,13 @@
         <v>1</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="J8" s="16" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K8" s="16">
         <v>1</v>
@@ -3224,25 +3252,25 @@
     </row>
     <row r="9" ht="115.5" spans="2:14">
       <c r="B9" s="18" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F9" s="18" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H9" s="18" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K9" s="18" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="M9" s="18" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="N9" s="18" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="10" spans="2:2">
